--- a/Document/Report/Report 05/OOPMS_TestResult_v1.0.xlsx
+++ b/Document/Report/Report 05/OOPMS_TestResult_v1.0.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="83">
   <si>
     <t>Project Eye</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>fail</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -649,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,9 +665,10 @@
     <col min="3" max="3" width="34.140625" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" customWidth="1"/>
     <col min="5" max="7" width="9.140625" style="5"/>
+    <col min="8" max="8" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E1" s="5" t="s">
         <v>12</v>
       </c>
@@ -674,8 +678,11 @@
       <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -689,7 +696,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <v>2</v>
       </c>
@@ -700,7 +707,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <v>3</v>
       </c>
@@ -711,7 +718,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>4</v>
       </c>
@@ -722,7 +729,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>5</v>
       </c>
@@ -733,7 +740,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>6</v>
       </c>
@@ -744,7 +751,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>7</v>
       </c>
@@ -755,7 +762,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>8</v>
       </c>
@@ -766,7 +773,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>9</v>
       </c>
@@ -777,7 +784,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>10</v>
       </c>
@@ -788,7 +795,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>11</v>
       </c>
@@ -799,7 +806,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>12</v>
       </c>
@@ -810,7 +817,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>13</v>
       </c>
@@ -821,7 +828,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>14</v>
       </c>
@@ -832,7 +839,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>15</v>
       </c>

--- a/Document/Report/Report 05/OOPMS_TestResult_v1.0.xlsx
+++ b/Document/Report/Report 05/OOPMS_TestResult_v1.0.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="84">
   <si>
     <t>Project Eye</t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>x(OnetimeExpense, DailyExpense)</t>
   </si>
 </sst>
 </file>
@@ -652,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H108"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,7 +671,7 @@
     <col min="8" max="8" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E1" s="5" t="s">
         <v>12</v>
       </c>
@@ -682,7 +685,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -696,7 +699,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <v>2</v>
       </c>
@@ -706,8 +709,11 @@
       <c r="E3" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <v>3</v>
       </c>
@@ -717,8 +723,11 @@
       <c r="E4" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>4</v>
       </c>
@@ -728,8 +737,11 @@
       <c r="E5" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>5</v>
       </c>
@@ -739,8 +751,11 @@
       <c r="E6" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>6</v>
       </c>
@@ -750,8 +765,11 @@
       <c r="E7" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>7</v>
       </c>
@@ -762,7 +780,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>8</v>
       </c>
@@ -773,7 +791,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>9</v>
       </c>
@@ -784,7 +802,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>10</v>
       </c>
@@ -795,7 +813,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>11</v>
       </c>
@@ -806,7 +824,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>12</v>
       </c>
@@ -817,7 +835,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>13</v>
       </c>
@@ -827,8 +845,11 @@
       <c r="E14" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>14</v>
       </c>
@@ -838,8 +859,11 @@
       <c r="E15" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>15</v>
       </c>
@@ -849,8 +873,11 @@
       <c r="E16" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>16</v>
       </c>
@@ -861,7 +888,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>17</v>
       </c>
@@ -872,7 +899,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>18</v>
       </c>
@@ -883,7 +910,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>19</v>
       </c>
@@ -893,8 +920,11 @@
       <c r="E20" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>20</v>
       </c>
@@ -904,8 +934,11 @@
       <c r="E21" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>21</v>
       </c>
@@ -915,8 +948,11 @@
       <c r="E22" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>22</v>
       </c>
@@ -926,8 +962,11 @@
       <c r="G23" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <v>23</v>
       </c>
@@ -937,8 +976,11 @@
       <c r="G24" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <v>24</v>
       </c>
@@ -948,8 +990,11 @@
       <c r="G25" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <v>25</v>
       </c>
@@ -959,8 +1004,11 @@
       <c r="G26" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <v>26</v>
       </c>
@@ -970,8 +1018,11 @@
       <c r="G27" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
         <v>27</v>
       </c>
@@ -981,8 +1032,11 @@
       <c r="G28" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
         <v>28</v>
       </c>
@@ -992,8 +1046,11 @@
       <c r="G29" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1</v>
       </c>

--- a/Document/Report/Report 05/OOPMS_TestResult_v1.0.xlsx
+++ b/Document/Report/Report 05/OOPMS_TestResult_v1.0.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="84">
   <si>
     <t>Project Eye</t>
   </si>
@@ -657,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,6 +696,9 @@
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" t="s">
         <v>71</v>
       </c>
     </row>

--- a/Document/Report/Report 05/OOPMS_TestResult_v1.0.xlsx
+++ b/Document/Report/Report 05/OOPMS_TestResult_v1.0.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="86">
   <si>
     <t>Project Eye</t>
   </si>
@@ -267,7 +267,13 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>x(OnetimeExpense, DailyExpense)</t>
+    <t>p</t>
+  </si>
+  <si>
+    <t>p(OnetimeExpense, DailyExpense)</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -337,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -354,6 +360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,6 +676,7 @@
     <col min="4" max="4" width="6.85546875" customWidth="1"/>
     <col min="5" max="7" width="9.140625" style="5"/>
     <col min="8" max="8" width="30" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -684,6 +692,9 @@
       <c r="H1" s="5" t="s">
         <v>82</v>
       </c>
+      <c r="I1" s="6">
+        <v>41221</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -699,7 +710,7 @@
         <v>71</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -713,7 +724,7 @@
         <v>71</v>
       </c>
       <c r="I3" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -727,7 +738,7 @@
         <v>71</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -741,7 +752,7 @@
         <v>71</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -755,7 +766,7 @@
         <v>71</v>
       </c>
       <c r="I6" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -769,7 +780,7 @@
         <v>71</v>
       </c>
       <c r="I7" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -782,6 +793,9 @@
       <c r="G8" s="5" t="s">
         <v>71</v>
       </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
@@ -793,6 +807,9 @@
       <c r="G9" s="5" t="s">
         <v>71</v>
       </c>
+      <c r="I9" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
@@ -804,6 +821,9 @@
       <c r="G10" s="5" t="s">
         <v>71</v>
       </c>
+      <c r="I10" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
@@ -815,6 +835,9 @@
       <c r="G11" s="5" t="s">
         <v>71</v>
       </c>
+      <c r="I11" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
@@ -826,6 +849,9 @@
       <c r="G12" s="5" t="s">
         <v>71</v>
       </c>
+      <c r="I12" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
@@ -837,6 +863,9 @@
       <c r="G13" s="5" t="s">
         <v>71</v>
       </c>
+      <c r="I13" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
@@ -849,7 +878,7 @@
         <v>71</v>
       </c>
       <c r="I14" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -863,7 +892,7 @@
         <v>71</v>
       </c>
       <c r="I15" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -877,7 +906,7 @@
         <v>71</v>
       </c>
       <c r="I16" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -890,6 +919,9 @@
       <c r="G17" s="5" t="s">
         <v>71</v>
       </c>
+      <c r="I17" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
@@ -901,6 +933,9 @@
       <c r="G18" s="5" t="s">
         <v>71</v>
       </c>
+      <c r="I18" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
@@ -912,6 +947,9 @@
       <c r="G19" s="5" t="s">
         <v>71</v>
       </c>
+      <c r="I19" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
@@ -924,7 +962,7 @@
         <v>71</v>
       </c>
       <c r="I20" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -938,7 +976,7 @@
         <v>71</v>
       </c>
       <c r="I21" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -952,7 +990,7 @@
         <v>71</v>
       </c>
       <c r="I22" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -966,7 +1004,7 @@
         <v>71</v>
       </c>
       <c r="I23" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -980,7 +1018,7 @@
         <v>71</v>
       </c>
       <c r="I24" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -994,7 +1032,7 @@
         <v>71</v>
       </c>
       <c r="I25" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1008,7 +1046,7 @@
         <v>71</v>
       </c>
       <c r="I26" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1022,7 +1060,7 @@
         <v>71</v>
       </c>
       <c r="I27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1036,7 +1074,7 @@
         <v>71</v>
       </c>
       <c r="I28" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1050,7 +1088,7 @@
         <v>71</v>
       </c>
       <c r="I29" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1066,8 +1104,11 @@
       <c r="E32" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" s="4">
         <v>2</v>
       </c>
@@ -1077,8 +1118,11 @@
       <c r="E33" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B34" s="4">
         <v>3</v>
       </c>
@@ -1088,8 +1132,11 @@
       <c r="E34" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B35" s="4">
         <v>4</v>
       </c>
@@ -1099,8 +1146,11 @@
       <c r="E35" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B36" s="4">
         <v>5</v>
       </c>
@@ -1110,8 +1160,11 @@
       <c r="E36" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B37" s="4">
         <v>6</v>
       </c>
@@ -1121,8 +1174,11 @@
       <c r="E37" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B38" s="4">
         <v>7</v>
       </c>
@@ -1132,8 +1188,11 @@
       <c r="E38" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B39" s="4">
         <v>8</v>
       </c>
@@ -1143,8 +1202,11 @@
       <c r="E39" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B40" s="4">
         <v>9</v>
       </c>
@@ -1154,8 +1216,11 @@
       <c r="E40" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B41" s="4">
         <v>10</v>
       </c>
@@ -1165,8 +1230,11 @@
       <c r="E41" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -1179,8 +1247,11 @@
       <c r="E44" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B45" s="4">
         <v>2</v>
       </c>
@@ -1190,8 +1261,11 @@
       <c r="E45" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B46" s="4">
         <v>3</v>
       </c>
@@ -1201,8 +1275,11 @@
       <c r="E46" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B47" s="4">
         <v>4</v>
       </c>
@@ -1212,8 +1289,11 @@
       <c r="E47" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B48" s="4">
         <v>5</v>
       </c>
@@ -1223,8 +1303,11 @@
       <c r="E48" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B49" s="4">
         <v>6</v>
       </c>
@@ -1234,8 +1317,11 @@
       <c r="E49" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B50" s="4">
         <v>7</v>
       </c>
@@ -1245,8 +1331,11 @@
       <c r="E50" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B51" s="4">
         <v>8</v>
       </c>
@@ -1256,8 +1345,11 @@
       <c r="E51" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B52" s="4">
         <v>9</v>
       </c>
@@ -1267,8 +1359,11 @@
       <c r="E52" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B53" s="4">
         <v>10</v>
       </c>
@@ -1278,8 +1373,11 @@
       <c r="E53" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B54" s="4">
         <v>11</v>
       </c>
@@ -1289,8 +1387,11 @@
       <c r="E54" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B55" s="4">
         <v>12</v>
       </c>
@@ -1300,8 +1401,11 @@
       <c r="E55" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -1314,8 +1418,11 @@
       <c r="E58" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B59" s="4">
         <v>2</v>
       </c>
@@ -1325,8 +1432,11 @@
       <c r="E59" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B60" s="4">
         <v>3</v>
       </c>
@@ -1336,8 +1446,11 @@
       <c r="E60" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I60" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B61" s="4">
         <v>4</v>
       </c>
@@ -1347,8 +1460,11 @@
       <c r="E61" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B62" s="4">
         <v>5</v>
       </c>
@@ -1358,8 +1474,11 @@
       <c r="E62" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B63" s="4">
         <v>6</v>
       </c>
@@ -1369,8 +1488,11 @@
       <c r="E63" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I63" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B64" s="4">
         <v>7</v>
       </c>
@@ -1380,8 +1502,11 @@
       <c r="E64" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B65" s="4">
         <v>8</v>
       </c>
@@ -1391,8 +1516,11 @@
       <c r="E65" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -1406,7 +1534,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B69" s="4">
         <v>2</v>
       </c>
@@ -1417,7 +1545,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B70" s="4">
         <v>3</v>
       </c>
@@ -1428,7 +1556,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B71" s="4">
         <v>4</v>
       </c>
@@ -1439,7 +1567,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B72" s="4">
         <v>5</v>
       </c>
@@ -1450,7 +1578,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B73" s="4">
         <v>6</v>
       </c>
@@ -1461,7 +1589,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -1475,7 +1603,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B77" s="4">
         <v>2</v>
       </c>
@@ -1486,7 +1614,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>6</v>
       </c>
